--- a/web/pns/ART_Daily_Form_v5_2020_12_09.xlsx
+++ b/web/pns/ART_Daily_Form_v5_2020_12_09.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B985D5-9CA9-467D-9C79-62C10B58EFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LPgcqdZpBuiALyY/XQwYK5fUabnorXdr1zOG9C+HEoC99ls9BU53INBjQ9o2omJulJ2RIlPi0UU2sAdwC2+zTQ==" workbookSaltValue="8InGMar2fNhx0oZQuxlMxw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84565ED2-7BBF-456F-AF26-290E57C55EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0IOMtl9YQAH9G9C5UWYud7i7bCrv/dRN/7jKmcuWCb8WQ1WUyvgNlyOzttABqF7+imcm+mj3ojqfzO7zvrsdkA==" workbookSaltValue="MxoZWSODnAC2lSGBpO9tPA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="400" xr2:uid="{1FCEBE06-7D9E-4F7E-9322-5102B9ED0A07}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <definedName name="Narok">SiteSetUp!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ccc!$A$2:$AB$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">pmtct!$A$2:$AA$42</definedName>
-    <definedName name="Samburu">SiteSetUp!$F$2:$F$23</definedName>
+    <definedName name="Samburu">SiteSetUp!$F$2:$F$24</definedName>
     <definedName name="sdp" localSheetId="1">ccc!$C$6</definedName>
     <definedName name="sdp" localSheetId="0">pmtct!$C$6</definedName>
     <definedName name="sdp">#REF!</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="812">
   <si>
     <t>F</t>
   </si>
@@ -2564,6 +2564,9 @@
   </si>
   <si>
     <t xml:space="preserve">Screened Positive for Cervical Cancer started on CXCA treatment </t>
+  </si>
+  <si>
+    <t>Archers Post Sub-County Hospital_24233</t>
   </si>
 </sst>
 </file>
@@ -6579,7 +6582,7 @@
       <selection activeCell="Y45" sqref="Y45"/>
       <selection pane="topRight" activeCell="Y45" sqref="Y45"/>
       <selection pane="bottomLeft" activeCell="Y45" sqref="Y45"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -7390,7 +7393,10 @@
       <c r="X12" s="69"/>
       <c r="Y12" s="69"/>
       <c r="Z12" s="69"/>
-      <c r="AA12" s="55"/>
+      <c r="AA12" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="AB12" s="56">
         <v>46</v>
       </c>
@@ -8667,7 +8673,7 @@
       <c r="Y45" s="80"/>
       <c r="Z45" s="79"/>
       <c r="AA45" s="55" t="str">
-        <f t="shared" ref="AA45:AA46" si="9">IF(SUMPRODUCT(--(C45:Z45&lt;&gt;""))=0,"",SUM(C45:Z45))</f>
+        <f t="shared" ref="AA45:AA47" si="9">IF(SUMPRODUCT(--(C45:Z45&lt;&gt;""))=0,"",SUM(C45:Z45))</f>
         <v/>
       </c>
       <c r="AB45" s="57">
@@ -8744,7 +8750,10 @@
       <c r="X47" s="71"/>
       <c r="Y47" s="69"/>
       <c r="Z47" s="71"/>
-      <c r="AA47" s="61"/>
+      <c r="AA47" s="55" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AB47" s="57">
         <v>49</v>
       </c>
@@ -8814,7 +8823,7 @@
       <c r="CB49" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="naPlrXzIfUjP2gZt8llbEs5rKehkR57saKjTY3UKlx0+S0G6YRb9Rqx8JVZD3uw3RVTPon5eHrVymuqkzmqTuQ==" saltValue="FUlfJhVdyOsj1qRlTk/aoA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MnlKClLQbOEgwJq/s3lKjTq08v8mmYC+T+HfDidkjf+EQRrG/QHSULpekuIaiJs4c+qpaNabtLjEJvT+QMWIdA==" saltValue="4llu76sV+yBiAOiYdlghlw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="29">
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B36:AA36"/>
@@ -9385,11 +9394,11 @@
   <dimension ref="A1:CB51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H54" sqref="H54"/>
       <selection pane="topRight" activeCell="H54" sqref="H54"/>
       <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -10181,7 +10190,10 @@
       <c r="X12" s="69"/>
       <c r="Y12" s="69"/>
       <c r="Z12" s="69"/>
-      <c r="AA12" s="55"/>
+      <c r="AA12" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="AB12" s="56">
         <v>46</v>
       </c>
@@ -11678,7 +11690,7 @@
       <c r="CB51" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E9SFP690IjFaLQ8z2+kUzQmvxkEJymDjLPZobv5+6sigKOL8+QloHw0QDHQapKokzHJUQwrz009wDFwt9WRM6Q==" saltValue="f0AN5puSQ5Y2oT1wjCTkQQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xJSCTPJ+UIQ02WKQZy2vxxW2dqWmqWw9IHM2HEB7JSbeNJO0+HVS9k/eGr6FdtEKmVGwsqRQ6JyeKJTEMgI6MA==" saltValue="bivGg/GcAij9iSJ+irlJeQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="29">
     <mergeCell ref="B36:AA36"/>
     <mergeCell ref="B38:AA38"/>
@@ -12286,7 +12298,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA10:AA16 AA37 AA34:AA35 AA39:AA43 AA45:AA47" xr:uid="{17B34FEB-6871-4B31-9A02-FC2992EA0645}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non Numeric Character" error="Enter Numbers only" sqref="AA18:AA20 AA22:AA32 AA45:AA47 AA37 AA34:AA35 AA39:AA43 AA10:AA16" xr:uid="{17B34FEB-6871-4B31-9A02-FC2992EA0645}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Service Delivery Point (SDP):" prompt="Click arrow to select_x000a_" sqref="C6" xr:uid="{C634B8CB-9DDD-435C-BA32-03DBE0C1B541}">
       <formula1>"PMTCT,CCC"</formula1>
     </dataValidation>
@@ -17628,8 +17640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C99F184-824A-42FB-B12C-B67C1EF01C8E}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18064,6 +18076,9 @@
       <c r="E24" t="s">
         <v>598</v>
       </c>
+      <c r="F24" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -18784,7 +18799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LpmwCnwMRUxn1XBT4qEX9E5IMYP/1vAf30C6v/AMMCOe/Fio+5mqYwDJVQeSUJMzGzJB68NP9BP8UccfgHCh0w==" saltValue="G3Y+hq8r0Y+tk5itT0mtuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KdzK3OOiUSVXXFHQQHhBmm5Ji0+SgXv9hgOq1LTYP5C6cDWKSVLfUvLI2PIVAYxw5mp4G51BW3B9icLOuUZnRQ==" saltValue="v598mVuoZjS1cGJ5FrDu2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
     <sortCondition ref="A2"/>
   </sortState>
@@ -18796,7 +18811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A072E6-967D-49D6-8DD9-B0D3C5F82D5A}">
   <dimension ref="A1:D328"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A301" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
@@ -23410,6 +23425,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA9366B03F6EC145B189534E5AC3D6E6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc27aaa6afa60559960f746ac0a40ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="dac3fa0a-9923-49c3-b4ba-df6390fa58ea" xmlns:ns4="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6816e770e34b85fcdcbb3032b3d95e9" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23643,7 +23667,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23652,16 +23676,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E813427-ED26-482C-AA95-5E8CE21F89AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23681,28 +23704,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
-    <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>